--- a/todo.xlsx
+++ b/todo.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcg3304\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcg3304\Desktop\kwittup_ui_mockup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E334370B-78AB-4F3B-8690-54DA3C94AEC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878B174B-FF60-4E6D-A22A-7DFDAFB29396}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9120" activeTab="1" xr2:uid="{885A90D6-9FE9-4F46-9DB7-99CFD7526296}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="suggestions" sheetId="3" r:id="rId3"/>
+    <sheet name="Tabelle3" sheetId="4" r:id="rId3"/>
+    <sheet name="suggestions" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="127">
   <si>
     <t>#</t>
   </si>
@@ -230,9 +231,6 @@
     <t>Second Page</t>
   </si>
   <si>
-    <t>Make the Home to work</t>
-  </si>
-  <si>
     <t>Leave the first tab open so that the user knows that he/she has to click</t>
   </si>
   <si>
@@ -245,9 +243,6 @@
     <t>Use icons instead of text on the "Experience use case"</t>
   </si>
   <si>
-    <t>Change "About bBox" to "We"</t>
-  </si>
-  <si>
     <t>Change "KwittUp Information" to "About"</t>
   </si>
   <si>
@@ -348,6 +343,72 @@
   </si>
   <si>
     <t>Add new feature: Enable Apple-Pay</t>
+  </si>
+  <si>
+    <t>Change "confirm here" to "add money here"</t>
+  </si>
+  <si>
+    <t>Make the auto recharge feature interacting, the user should be able to choose the limit and amount to recharge</t>
+  </si>
+  <si>
+    <t>Make the back button from machine profile options to return to chat instead of chats history</t>
+  </si>
+  <si>
+    <t>Parking area</t>
+  </si>
+  <si>
+    <t>Allow user to be able to proceed without choosing car charging service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove "you just added this" from chat </t>
+  </si>
+  <si>
+    <t>Remove "you just added.."</t>
+  </si>
+  <si>
+    <t>Allow user to choose more or other items</t>
+  </si>
+  <si>
+    <t>Add possiblity for user to select other cars too &amp; they should be types of cars instead of models</t>
+  </si>
+  <si>
+    <t>Remove "you just selected.."</t>
+  </si>
+  <si>
+    <t>Make each product removable or replace in each portfolio</t>
+  </si>
+  <si>
+    <t>Make the Home BUTTON to work</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>Change "About bBox" to "Who we are"</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>make bottom menu that contains feedback,about, who we are, technical info</t>
+  </si>
+  <si>
+    <t>rented a Maserati for € 100</t>
+  </si>
+  <si>
+    <t>1 day ticket bought</t>
+  </si>
+  <si>
+    <t>parked for 2 h 30 mn</t>
+  </si>
+  <si>
+    <t>clothes collected at machine #3</t>
+  </si>
+  <si>
+    <t>1 regular ticket bought</t>
+  </si>
+  <si>
+    <t>€100 cash withdrawn</t>
   </si>
 </sst>
 </file>
@@ -1303,16 +1364,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBEF2C79-7016-406E-AC36-4999B2C298F8}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="88.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="96.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1356,6 +1417,9 @@
       <c r="B5" t="s">
         <v>64</v>
       </c>
+      <c r="C5" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1380,7 +1444,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>116</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1388,7 +1455,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1396,7 +1466,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1404,7 +1477,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1412,7 +1485,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1420,7 +1493,10 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>118</v>
+      </c>
+      <c r="C14" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1428,7 +1504,10 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="C15" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1436,251 +1515,329 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>16</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>17</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>18</v>
-      </c>
-      <c r="B22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>19</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>20</v>
-      </c>
-      <c r="B24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>21</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>22</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>23</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>26</v>
-      </c>
-      <c r="B30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>27</v>
-      </c>
-      <c r="B31" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>28</v>
-      </c>
-      <c r="B32" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>29</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>31</v>
+      </c>
+      <c r="B39" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>30</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>31</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>32</v>
+      </c>
+      <c r="B44" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>32</v>
-      </c>
-      <c r="B40" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>33</v>
-      </c>
-      <c r="B41" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>34</v>
-      </c>
-      <c r="B42" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>37</v>
-      </c>
-      <c r="B49" t="s">
-        <v>103</v>
+      <c r="B49" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
+        <v>36</v>
+      </c>
+      <c r="B51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>37</v>
+      </c>
+      <c r="B55" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>38</v>
+      </c>
+      <c r="B56" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>39</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B57" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>40</v>
+      </c>
+      <c r="B58" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>41</v>
+      </c>
+      <c r="B59" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>40</v>
-      </c>
-      <c r="B52" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>42</v>
+      </c>
+      <c r="B60" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>43</v>
+      </c>
+      <c r="B61" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1690,6 +1847,54 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C255BE8-4C3D-42B4-8DC1-BCD07956DFAF}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A1:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{504D47C7-6C16-4E4D-9CED-184590FD37AE}">
   <dimension ref="A2"/>
   <sheetViews>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcg3304\Desktop\kwittup_ui_mockup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878B174B-FF60-4E6D-A22A-7DFDAFB29396}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFE26AE-F841-44F4-A925-83ACD6649DFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9120" activeTab="1" xr2:uid="{885A90D6-9FE9-4F46-9DB7-99CFD7526296}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="127">
   <si>
     <t>#</t>
   </si>
@@ -1366,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBEF2C79-7016-406E-AC36-4999B2C298F8}">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1401,6 +1401,9 @@
       <c r="B3" t="s">
         <v>61</v>
       </c>
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1418,7 +1421,7 @@
         <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1428,6 +1431,9 @@
       <c r="B6" t="s">
         <v>65</v>
       </c>
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1454,7 +1460,7 @@
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C10" t="s">
@@ -1476,8 +1482,11 @@
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>69</v>
+      </c>
+      <c r="C12" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1487,6 +1496,9 @@
       <c r="B13" t="s">
         <v>70</v>
       </c>
+      <c r="C13" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1507,7 +1519,7 @@
         <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1517,17 +1529,23 @@
       <c r="B16" t="s">
         <v>72</v>
       </c>
+      <c r="C16" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>120</v>
       </c>
+      <c r="C17" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>13</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1538,6 +1556,9 @@
       <c r="B19" t="s">
         <v>74</v>
       </c>
+      <c r="C19" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -1547,7 +1568,7 @@
         <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1605,6 +1626,9 @@
       <c r="B27" t="s">
         <v>82</v>
       </c>
+      <c r="C27" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -1614,7 +1638,7 @@
         <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1651,16 +1675,22 @@
       <c r="B32" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>28</v>
       </c>
       <c r="B33" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>29</v>
       </c>
@@ -1668,17 +1698,17 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>30</v>
       </c>
@@ -1686,7 +1716,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>31</v>
       </c>
@@ -1694,22 +1724,22 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>32</v>
       </c>
@@ -1717,7 +1747,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>33</v>
       </c>
@@ -1725,7 +1755,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>34</v>
       </c>
@@ -1733,17 +1763,17 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>35</v>
       </c>
@@ -1751,7 +1781,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>36</v>
       </c>
@@ -1759,17 +1789,17 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>37</v>
       </c>
@@ -1777,7 +1807,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>38</v>
       </c>
@@ -1785,7 +1815,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>39</v>
       </c>
@@ -1793,7 +1823,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>40</v>
       </c>
@@ -1801,7 +1831,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>41</v>
       </c>
@@ -1809,7 +1839,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>42</v>
       </c>
@@ -1817,7 +1847,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>43</v>
       </c>
@@ -1825,19 +1855,25 @@
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>110</v>
+      </c>
+      <c r="C65" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcg3304\Desktop\kwittup_ui_mockup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFE26AE-F841-44F4-A925-83ACD6649DFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC76DDC4-D3B3-4629-BA4E-DB5EABE569FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9120" activeTab="1" xr2:uid="{885A90D6-9FE9-4F46-9DB7-99CFD7526296}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="127">
   <si>
     <t>#</t>
   </si>
@@ -1367,7 +1367,7 @@
   <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1412,6 +1412,9 @@
       <c r="B4" t="s">
         <v>63</v>
       </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1548,6 +1551,9 @@
       <c r="B18" s="5" t="s">
         <v>73</v>
       </c>
+      <c r="C18" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -1578,6 +1584,9 @@
       <c r="B21" t="s">
         <v>76</v>
       </c>
+      <c r="C21" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -1586,6 +1595,9 @@
       <c r="B22" t="s">
         <v>77</v>
       </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -1594,6 +1606,9 @@
       <c r="B23" t="s">
         <v>78</v>
       </c>
+      <c r="C23" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -1602,6 +1617,9 @@
       <c r="B24" t="s">
         <v>80</v>
       </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -1610,6 +1628,9 @@
       <c r="B25" t="s">
         <v>79</v>
       </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -1618,6 +1639,9 @@
       <c r="B26" t="s">
         <v>81</v>
       </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -1648,6 +1672,9 @@
       <c r="B29" t="s">
         <v>84</v>
       </c>
+      <c r="C29" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -1667,6 +1694,9 @@
       <c r="B31" t="s">
         <v>86</v>
       </c>
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -1697,11 +1727,17 @@
       <c r="B34" t="s">
         <v>89</v>
       </c>
+      <c r="C34" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>115</v>
       </c>
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
@@ -1715,6 +1751,9 @@
       <c r="B38" t="s">
         <v>91</v>
       </c>
+      <c r="C38" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -1723,16 +1762,25 @@
       <c r="B39" t="s">
         <v>92</v>
       </c>
+      <c r="C39" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>111</v>
       </c>
+      <c r="C40" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>112</v>
       </c>
+      <c r="C41" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
@@ -1746,6 +1794,9 @@
       <c r="B44" t="s">
         <v>94</v>
       </c>
+      <c r="C44" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -1754,6 +1805,9 @@
       <c r="B45" t="s">
         <v>95</v>
       </c>
+      <c r="C45" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
@@ -1762,11 +1816,17 @@
       <c r="B46" t="s">
         <v>96</v>
       </c>
+      <c r="C46" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>113</v>
       </c>
+      <c r="C47" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
@@ -1780,6 +1840,9 @@
       <c r="B50" t="s">
         <v>98</v>
       </c>
+      <c r="C50" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
@@ -1788,11 +1851,17 @@
       <c r="B51" t="s">
         <v>99</v>
       </c>
+      <c r="C51" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>114</v>
       </c>
+      <c r="C52" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
@@ -1806,6 +1875,9 @@
       <c r="B55" t="s">
         <v>101</v>
       </c>
+      <c r="C55" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
@@ -1814,6 +1886,9 @@
       <c r="B56" t="s">
         <v>102</v>
       </c>
+      <c r="C56" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
@@ -1822,12 +1897,15 @@
       <c r="B57" t="s">
         <v>103</v>
       </c>
+      <c r="C57" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>40</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="5" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1838,6 +1916,9 @@
       <c r="B59" t="s">
         <v>105</v>
       </c>
+      <c r="C59" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
@@ -1846,6 +1927,9 @@
       <c r="B60" t="s">
         <v>106</v>
       </c>
+      <c r="C60" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
@@ -1853,6 +1937,9 @@
       </c>
       <c r="B61" t="s">
         <v>107</v>
+      </c>
+      <c r="C61" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcg3304\Desktop\kwittup_ui_mockup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC76DDC4-D3B3-4629-BA4E-DB5EABE569FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D737C686-1902-4E59-99FA-1D7F86A91E02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9120" activeTab="1" xr2:uid="{885A90D6-9FE9-4F46-9DB7-99CFD7526296}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="128">
   <si>
     <t>#</t>
   </si>
@@ -409,6 +409,9 @@
   </si>
   <si>
     <t>€100 cash withdrawn</t>
+  </si>
+  <si>
+    <t>allow user to pay for 2 products</t>
   </si>
 </sst>
 </file>
@@ -1364,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBEF2C79-7016-406E-AC36-4999B2C298F8}">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1413,7 +1416,7 @@
         <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1618,7 +1621,7 @@
         <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1629,7 +1632,7 @@
         <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1640,7 +1643,7 @@
         <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1728,7 +1731,7 @@
         <v>89</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1841,7 +1844,7 @@
         <v>98</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1898,7 +1901,7 @@
         <v>103</v>
       </c>
       <c r="C57" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1961,6 +1964,11 @@
       </c>
       <c r="C65" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
